--- a/lighterFluid/inputs/demoSheet.xlsx
+++ b/lighterFluid/inputs/demoSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoghanoc\source\repos\lighterFluid\lighterFluid\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adambyrn\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273F2DCC-448F-4836-9895-9B15D340D386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F95F332-8B19-443C-A916-12E1CF30D4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2220" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="templateLookup" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="361">
   <si>
     <t>Flow</t>
   </si>
@@ -1110,6 +1110,18 @@
   </si>
   <si>
     <t>BASE::SHMOO_nom_lvl</t>
+  </si>
+  <si>
+    <t>icLya</t>
+  </si>
+  <si>
+    <t>iCLYA</t>
+  </si>
+  <si>
+    <t>ddgvmintc</t>
+  </si>
+  <si>
+    <t>VminTC</t>
   </si>
 </sst>
 </file>
@@ -2104,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335B2182-EA68-41EA-9EA9-384E14E7AACA}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,6 +2347,22 @@
         <v>349</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B27" t="s">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2344,7 +2372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB20E6F1-DE4C-470B-9A99-FCCB71C10BDB}">
   <dimension ref="A1:AU61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="AL5" sqref="AL5"/>
@@ -23068,15 +23096,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002200735434F8BC4E847E79EE962A8A4A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="83f675189dd244c3c7bcfe6ef2723be5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1cd8a145-0748-4d97-9311-a3be7d9cf841" xmlns:ns3="2e84272e-479a-4b4f-8918-ffe580143f91" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dd33d4618ec6cc7e4782be4e466c7bd" ns2:_="" ns3:_="">
     <xsd:import namespace="1cd8a145-0748-4d97-9311-a3be7d9cf841"/>
@@ -23253,15 +23272,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D30E43E-9BCC-44E6-A6FA-8336DBB02DA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD6ABBF-3907-430F-A89A-B3039F113893}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23278,4 +23298,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D30E43E-9BCC-44E6-A6FA-8336DBB02DA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lighterFluid/inputs/demoSheet.xlsx
+++ b/lighterFluid/inputs/demoSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adambyrn\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F95F332-8B19-443C-A916-12E1CF30D4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CFB3AC-267F-411A-AE20-95F7A859AE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2220" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="templateLookup" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="arr_core_serial_begin" sheetId="12" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">arr_atom!$A$1:$AU$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">arr_atom!$A$1:$BI$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">arr_core_serial_begin!$A$1:$AQ$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="382">
   <si>
     <t>Flow</t>
   </si>
@@ -1112,9 +1112,6 @@
     <t>BASE::SHMOO_nom_lvl</t>
   </si>
   <si>
-    <t>icLya</t>
-  </si>
-  <si>
     <t>iCLYA</t>
   </si>
   <si>
@@ -1122,13 +1119,79 @@
   </si>
   <si>
     <t>VminTC</t>
+  </si>
+  <si>
+    <t>BASE::cpu_ctf_timing_tclk100_cclk200_bclk401</t>
+  </si>
+  <si>
+    <t>1700_CAM_DDG</t>
+  </si>
+  <si>
+    <t>FailCaptureCount</t>
+  </si>
+  <si>
+    <t>FeatureSwitchSettings</t>
+  </si>
+  <si>
+    <t>ForwardingMode</t>
+  </si>
+  <si>
+    <t>PinMap</t>
+  </si>
+  <si>
+    <t>RecoveryMode</t>
+  </si>
+  <si>
+    <t>RecoveryOptions</t>
+  </si>
+  <si>
+    <t>RecoveryTrackingIncoming</t>
+  </si>
+  <si>
+    <t>RecoveryTrackingOutgoing</t>
+  </si>
+  <si>
+    <t>ScoreboardEdgeTicks</t>
+  </si>
+  <si>
+    <t>ScoreboardMaxFails</t>
+  </si>
+  <si>
+    <t>StartVoltagesForRetry</t>
+  </si>
+  <si>
+    <t>lya</t>
+  </si>
+  <si>
+    <t>LYA</t>
+  </si>
+  <si>
+    <t>ATOM0</t>
+  </si>
+  <si>
+    <t>L2_LYA</t>
+  </si>
+  <si>
+    <t>LYA_Tag</t>
+  </si>
+  <si>
+    <t>LYA_execution_mode</t>
+  </si>
+  <si>
+    <t>lyas0</t>
+  </si>
+  <si>
+    <t>GOODCELL</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,8 +1342,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="50">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1562,8 +1631,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1678,6 +1759,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1723,7 +1843,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1750,6 +1870,12 @@
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2118,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335B2182-EA68-41EA-9EA9-384E14E7AACA}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,18 +2475,18 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" t="s">
         <v>357</v>
-      </c>
-      <c r="B26" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" t="s">
         <v>359</v>
-      </c>
-      <c r="B27" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2370,12 +2496,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB20E6F1-DE4C-470B-9A99-FCCB71C10BDB}">
-  <dimension ref="A1:AU61"/>
+  <dimension ref="A1:BI63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="AL5" sqref="AL5"/>
+      <selection pane="bottomLeft" activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,13 +2524,13 @@
     <col min="30" max="30" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="37" width="9.140625" customWidth="1"/>
-    <col min="38" max="38" width="25.42578125" customWidth="1"/>
-    <col min="39" max="39" width="28.28515625" customWidth="1"/>
-    <col min="40" max="47" width="9.140625" customWidth="1"/>
+    <col min="33" max="51" width="9.140625" customWidth="1"/>
+    <col min="52" max="52" width="25.42578125" customWidth="1"/>
+    <col min="53" max="53" width="28.28515625" customWidth="1"/>
+    <col min="54" max="61" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2507,47 +2633,89 @@
       <c r="AH1" t="s">
         <v>138</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="AJ1" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK1" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL1" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM1" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="AN1" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO1" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="AP1" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ1" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="AR1" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="AS1" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="AT1" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU1" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="AV1" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW1" t="s">
         <v>79</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AX1" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AY1" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AZ1" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BA1" t="s">
         <v>17</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BB1" t="s">
         <v>18</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BC1" t="s">
         <v>19</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BD1" t="s">
         <v>20</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BE1" t="s">
         <v>21</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BF1" t="s">
         <v>22</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BG1" t="s">
         <v>23</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BH1" t="s">
         <v>24</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BI1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -2562,7 +2730,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -2621,8 +2789,22 @@
       <c r="AS3" s="7"/>
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="7"/>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2639,24 +2821,24 @@
       <c r="F4" t="s">
         <v>67</v>
       </c>
-      <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ19" si="0">COUNTA(AL4:AU4)</f>
+      <c r="AX4">
+        <f t="shared" ref="AX4:AX20" si="0">COUNTA(AZ4:BI4)</f>
         <v>3</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AY4" t="s">
         <v>78</v>
       </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-      <c r="AN4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2668,7 +2850,7 @@
         <v>iCHSRTest</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D19" si="1">E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;"_"&amp;A5&amp;"_"&amp;I5&amp;"_"&amp;J5&amp;"_"&amp;K5&amp;"_"&amp;L5&amp;"_"&amp;M5</f>
+        <f t="shared" ref="D5:D20" si="1">E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;"_"&amp;A5&amp;"_"&amp;I5&amp;"_"&amp;J5&amp;"_"&amp;K5&amp;"_"&amp;L5&amp;"_"&amp;M5</f>
         <v>SSA_ATOM_HRY_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_ALL_PRE_HRY</v>
       </c>
       <c r="E5" t="s">
@@ -2722,33 +2904,33 @@
       <c r="V5" t="s">
         <v>146</v>
       </c>
-      <c r="AI5" t="b">
+      <c r="AW5" t="b">
         <v>0</v>
       </c>
-      <c r="AJ5">
+      <c r="AX5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AY5" t="s">
         <v>106</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="AZ5" t="str">
         <f>D6</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_DAT_CAPTURE</v>
       </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="str">
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5" t="str">
         <f>D6</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_DAT_CAPTURE</v>
       </c>
-      <c r="AO5" t="str">
+      <c r="BC5" t="str">
         <f>D6</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_DAT_CAPTURE</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2817,30 +2999,30 @@
       <c r="AE6" t="s">
         <v>131</v>
       </c>
-      <c r="AI6" t="b">
+      <c r="AW6" t="b">
         <v>0</v>
       </c>
-      <c r="AJ6">
+      <c r="AX6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AY6" t="s">
         <v>78</v>
       </c>
-      <c r="AL6" t="str">
+      <c r="AZ6" t="str">
         <f>D9</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_CAPTURE</v>
       </c>
-      <c r="AM6" t="str">
+      <c r="BA6" t="str">
         <f>D7</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_DAT_REPAIR</v>
       </c>
-      <c r="AN6" t="str">
+      <c r="BB6" t="str">
         <f>D9</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_CAPTURE</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2918,42 +3100,42 @@
       <c r="AH7" t="s">
         <v>139</v>
       </c>
-      <c r="AI7" t="b">
+      <c r="AW7" t="b">
         <v>0</v>
       </c>
-      <c r="AJ7">
+      <c r="AX7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AY7" t="s">
         <v>110</v>
       </c>
-      <c r="AL7" t="str">
+      <c r="AZ7" t="str">
         <f>D9</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_CAPTURE</v>
       </c>
-      <c r="AM7" t="str">
+      <c r="BA7" t="str">
         <f>D9</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_CAPTURE</v>
       </c>
-      <c r="AN7" t="str">
+      <c r="BB7" t="str">
         <f>D9</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_CAPTURE</v>
       </c>
-      <c r="AO7" t="str">
+      <c r="BC7" t="str">
         <f>D8</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_DAT_REPAIR_TO_FUSE</v>
       </c>
-      <c r="AP7" t="str">
+      <c r="BD7" t="str">
         <f>D8</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_DAT_REPAIR_TO_FUSE</v>
       </c>
-      <c r="AQ7" t="str">
+      <c r="BE7" t="str">
         <f>D9</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_CAPTURE</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -3031,42 +3213,42 @@
       <c r="AH8" t="s">
         <v>140</v>
       </c>
-      <c r="AI8" t="b">
+      <c r="AW8" t="b">
         <v>0</v>
       </c>
-      <c r="AJ8">
+      <c r="AX8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AY8" t="s">
         <v>110</v>
       </c>
-      <c r="AL8" t="str">
+      <c r="AZ8" t="str">
         <f>D9</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_CAPTURE</v>
       </c>
-      <c r="AM8" t="str">
+      <c r="BA8" t="str">
         <f>D9</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_CAPTURE</v>
       </c>
-      <c r="AN8" t="str">
+      <c r="BB8" t="str">
         <f>D9</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_CAPTURE</v>
       </c>
-      <c r="AO8" t="str">
+      <c r="BC8" t="str">
         <f>D9</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_CAPTURE</v>
       </c>
-      <c r="AP8" t="str">
+      <c r="BD8" t="str">
         <f>D9</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_CAPTURE</v>
       </c>
-      <c r="AQ8" t="str">
+      <c r="BE8" t="str">
         <f>D9</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_CAPTURE</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -3135,30 +3317,30 @@
       <c r="AE9" t="s">
         <v>132</v>
       </c>
-      <c r="AI9" t="b">
+      <c r="AW9" t="b">
         <v>0</v>
       </c>
-      <c r="AJ9">
+      <c r="AX9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AY9" t="s">
         <v>78</v>
       </c>
-      <c r="AL9" t="str">
+      <c r="AZ9" t="str">
         <f>D12</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_CAPTURE</v>
       </c>
-      <c r="AM9" t="str">
+      <c r="BA9" t="str">
         <f>D10</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_REPAIR</v>
       </c>
-      <c r="AN9" t="str">
+      <c r="BB9" t="str">
         <f>D12</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_CAPTURE</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -3236,42 +3418,42 @@
       <c r="AH10" t="s">
         <v>139</v>
       </c>
-      <c r="AI10" t="b">
+      <c r="AW10" t="b">
         <v>0</v>
       </c>
-      <c r="AJ10">
+      <c r="AX10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AY10" t="s">
         <v>110</v>
       </c>
-      <c r="AL10" t="str">
+      <c r="AZ10" t="str">
         <f>D12</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_CAPTURE</v>
       </c>
-      <c r="AM10" t="str">
+      <c r="BA10" t="str">
         <f>D12</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_CAPTURE</v>
       </c>
-      <c r="AN10" t="str">
+      <c r="BB10" t="str">
         <f>D12</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_CAPTURE</v>
       </c>
-      <c r="AO10" t="str">
+      <c r="BC10" t="str">
         <f>D11</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_REPAIR_TO_FUSE</v>
       </c>
-      <c r="AP10" t="str">
+      <c r="BD10" t="str">
         <f>D11</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_REPAIR_TO_FUSE</v>
       </c>
-      <c r="AQ10" t="str">
+      <c r="BE10" t="str">
         <f>D12</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_CAPTURE</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3349,42 +3531,42 @@
       <c r="AH11" t="s">
         <v>140</v>
       </c>
-      <c r="AI11" t="b">
+      <c r="AW11" t="b">
         <v>0</v>
       </c>
-      <c r="AJ11">
+      <c r="AX11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AY11" t="s">
         <v>110</v>
       </c>
-      <c r="AL11" t="str">
+      <c r="AZ11" t="str">
         <f>D12</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_CAPTURE</v>
       </c>
-      <c r="AM11" t="str">
+      <c r="BA11" t="str">
         <f>D12</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_CAPTURE</v>
       </c>
-      <c r="AN11" t="str">
+      <c r="BB11" t="str">
         <f>D12</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_CAPTURE</v>
       </c>
-      <c r="AO11" t="str">
+      <c r="BC11" t="str">
         <f>D12</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_CAPTURE</v>
       </c>
-      <c r="AP11" t="str">
+      <c r="BD11" t="str">
         <f>D12</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_CAPTURE</v>
       </c>
-      <c r="AQ11" t="str">
+      <c r="BE11" t="str">
         <f>D12</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_CAPTURE</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -3453,30 +3635,30 @@
       <c r="AE12" t="s">
         <v>133</v>
       </c>
-      <c r="AI12" t="b">
+      <c r="AW12" t="b">
         <v>0</v>
       </c>
-      <c r="AJ12">
+      <c r="AX12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AY12" t="s">
         <v>78</v>
       </c>
-      <c r="AL12" t="str">
+      <c r="AZ12" t="str">
         <f>D15</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
       </c>
-      <c r="AM12" t="str">
+      <c r="BA12" t="str">
         <f>D13</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_REPAIR</v>
       </c>
-      <c r="AN12" t="str">
+      <c r="BB12" t="str">
         <f>D15</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -3554,42 +3736,42 @@
       <c r="AH13" t="s">
         <v>139</v>
       </c>
-      <c r="AI13" t="b">
+      <c r="AW13" t="b">
         <v>0</v>
       </c>
-      <c r="AJ13">
+      <c r="AX13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AY13" t="s">
         <v>110</v>
       </c>
-      <c r="AL13" t="str">
+      <c r="AZ13" t="str">
         <f>D15</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
       </c>
-      <c r="AM13" t="str">
+      <c r="BA13" t="str">
         <f>D15</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
       </c>
-      <c r="AN13" t="str">
+      <c r="BB13" t="str">
         <f>D15</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
       </c>
-      <c r="AO13" t="str">
+      <c r="BC13" t="str">
         <f>D14</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_REPAIR_TO_FUSE</v>
       </c>
-      <c r="AP13" t="str">
+      <c r="BD13" t="str">
         <f>D14</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_REPAIR_TO_FUSE</v>
       </c>
-      <c r="AQ13" t="str">
+      <c r="BE13" t="str">
         <f>D15</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -3667,42 +3849,42 @@
       <c r="AH14" t="s">
         <v>140</v>
       </c>
-      <c r="AI14" t="b">
+      <c r="AW14" t="b">
         <v>0</v>
       </c>
-      <c r="AJ14">
+      <c r="AX14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AY14" t="s">
         <v>110</v>
       </c>
-      <c r="AL14" t="str">
+      <c r="AZ14" t="str">
         <f>D15</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
       </c>
-      <c r="AM14" t="str">
+      <c r="BA14" t="str">
         <f>D15</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
       </c>
-      <c r="AN14" t="str">
+      <c r="BB14" t="str">
         <f>D15</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
       </c>
-      <c r="AO14" t="str">
+      <c r="BC14" t="str">
         <f>D15</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
       </c>
-      <c r="AP14" t="str">
+      <c r="BD14" t="str">
         <f>D15</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
       </c>
-      <c r="AQ14" t="str">
+      <c r="BE14" t="str">
         <f>D15</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3771,30 +3953,30 @@
       <c r="AC15" t="s">
         <v>124</v>
       </c>
-      <c r="AI15" t="b">
+      <c r="AW15" t="b">
         <v>0</v>
       </c>
-      <c r="AJ15">
+      <c r="AX15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AY15" t="s">
         <v>78</v>
       </c>
-      <c r="AL15" t="str">
+      <c r="AZ15" t="str">
         <f>D18</f>
         <v>SSA_ATOM_HRY_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_ALL_POST_HRY</v>
       </c>
-      <c r="AM15" t="str">
+      <c r="BA15" t="str">
         <f>D16</f>
         <v>SSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_ALL_VFDM_APPLY</v>
       </c>
-      <c r="AN15" t="str">
+      <c r="BB15" t="str">
         <f>D16</f>
         <v>SSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_ALL_VFDM_APPLY</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -3860,30 +4042,30 @@
       <c r="V16" t="s">
         <v>146</v>
       </c>
-      <c r="AI16" t="b">
+      <c r="AW16" t="b">
         <v>0</v>
       </c>
-      <c r="AJ16">
+      <c r="AX16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AK16">
-        <v>1</v>
-      </c>
-      <c r="AL16" t="str">
+      <c r="AY16">
+        <v>1</v>
+      </c>
+      <c r="AZ16" t="str">
         <f>D18</f>
         <v>SSA_ATOM_HRY_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_ALL_POST_HRY</v>
       </c>
-      <c r="AM16" t="str">
+      <c r="BA16" t="str">
         <f>D17</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_FUSE</v>
       </c>
-      <c r="AN16" t="str">
+      <c r="BB16" t="str">
         <f>D17</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_FUSE</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -3949,26 +4131,26 @@
       <c r="V17" t="s">
         <v>146</v>
       </c>
-      <c r="AI17" t="b">
+      <c r="AW17" t="b">
         <v>0</v>
       </c>
-      <c r="AJ17">
+      <c r="AX17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AK17">
-        <v>1</v>
-      </c>
-      <c r="AL17" t="str">
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="str">
         <f>D18</f>
         <v>SSA_ATOM_HRY_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_ALL_POST_HRY</v>
       </c>
-      <c r="AM17" t="str">
+      <c r="BA17" t="str">
         <f>D18</f>
         <v>SSA_ATOM_HRY_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_ALL_POST_HRY</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -4034,203 +4216,254 @@
       <c r="V18" t="s">
         <v>146</v>
       </c>
-      <c r="AI18" t="b">
+      <c r="AW18" t="b">
         <v>0</v>
       </c>
-      <c r="AJ18">
+      <c r="AX18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AY18" t="s">
         <v>106</v>
       </c>
-      <c r="AL18">
+      <c r="AZ18">
         <v>2</v>
       </c>
-      <c r="AM18" t="str">
-        <f>D19</f>
+      <c r="BA18" t="str">
+        <f>D20</f>
         <v>SSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2_NOM</v>
       </c>
-      <c r="AN18">
+      <c r="BB18">
         <v>2</v>
       </c>
-      <c r="AO18">
+      <c r="BC18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:61" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="C19" s="28" t="str">
+        <f>VLOOKUP(B19,templateLookup!A:B,2,0)</f>
+        <v>iCLYA</v>
+      </c>
+      <c r="D19" s="28" t="str">
+        <f t="shared" ref="D19" si="2">E19&amp;"_"&amp;F19&amp;"_"&amp;G19&amp;"_"&amp;H19&amp;"_"&amp;A19&amp;"_"&amp;I19&amp;"_"&amp;J19&amp;"_"&amp;K19&amp;"_"&amp;L19&amp;"_"&amp;M19</f>
+        <v>SSA_ATOM_LYA_E_BEGIN_TITO_ATOM0_NOM_LFM_L2_LYA</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>60</v>
+      </c>
+      <c r="R19" s="28">
+        <v>60</v>
+      </c>
+      <c r="S19" s="28">
+        <v>13</v>
+      </c>
+      <c r="U19" s="28">
+        <v>1</v>
+      </c>
+      <c r="V19" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI19" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ19" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="AK19" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL19" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="AM19" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="AN19" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO19" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="AP19" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ19" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR19" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS19" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT19" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU19" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="AV19" s="28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="1" t="str">
-        <f>VLOOKUP(B19,templateLookup!A:B,2,0)</f>
+      <c r="C20" s="1" t="str">
+        <f>VLOOKUP(B20,templateLookup!A:B,2,0)</f>
         <v>AuxiliaryTC</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D20" t="str">
         <f t="shared" si="1"/>
         <v>SSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2_NOM</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>67</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>122</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>32</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" t="s">
         <v>6</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J20" t="s">
         <v>6</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K20" t="s">
         <v>6</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L20" t="s">
         <v>6</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M20" t="s">
         <v>118</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N20" t="s">
         <v>339</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O20" t="s">
         <v>338</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P20" t="s">
         <v>222</v>
       </c>
-      <c r="Q19">
+      <c r="Q20">
         <v>60</v>
       </c>
-      <c r="R19">
+      <c r="R20">
         <v>60</v>
       </c>
-      <c r="S19">
+      <c r="S20">
         <v>14</v>
       </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
         <v>146</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AD20" t="s">
         <v>127</v>
       </c>
-      <c r="AI19" t="b">
+      <c r="AW20" t="b">
         <v>0</v>
       </c>
-      <c r="AJ19">
+      <c r="AX20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AY20" t="s">
         <v>78</v>
       </c>
-      <c r="AL19">
+      <c r="AZ20">
         <v>2</v>
       </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19">
+      <c r="BA20">
+        <v>1</v>
+      </c>
+      <c r="BB20">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="str">
-        <f>VLOOKUP(B20,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-    </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="7" t="str">
+      <c r="C21" s="1" t="str">
         <f>VLOOKUP(B21,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="7"/>
-      <c r="AU21" s="7"/>
-    </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>VLOOKUP(B22,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4270,105 +4503,94 @@
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
+      <c r="BC22" s="7"/>
+      <c r="BD22" s="7"/>
+      <c r="BE22" s="7"/>
+      <c r="BF22" s="7"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7"/>
+      <c r="BI22" s="7"/>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="4" t="str">
+      <c r="B23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="7" t="str">
         <f>VLOOKUP(B23,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D23" t="str">
-        <f>E23&amp;"_"&amp;F23&amp;"_"&amp;G23&amp;"_"&amp;H23&amp;"_"&amp;A23&amp;"_"&amp;I23&amp;"_"&amp;J23&amp;"_"&amp;K23&amp;"_"&amp;L23&amp;"_"&amp;M23</f>
-        <v>ALL_ATOM_VMIN_K_PREHVQK_TITO_ATOM_MIN_LFM_1700_LSA_ROM</v>
-      </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="7"/>
       <c r="F23" t="s">
         <v>67</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" t="s">
-        <v>240</v>
-      </c>
-      <c r="N23" t="s">
-        <v>339</v>
-      </c>
-      <c r="O23" t="s">
-        <v>338</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q23">
-        <v>20</v>
-      </c>
-      <c r="R23">
-        <v>61</v>
-      </c>
-      <c r="S23">
-        <v>200</v>
-      </c>
-      <c r="U23">
-        <v>-1</v>
-      </c>
-      <c r="V23" t="s">
-        <v>145</v>
-      </c>
-      <c r="W23" t="s">
-        <v>342</v>
-      </c>
-      <c r="X23" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA23">
-        <v>2100</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>336</v>
-      </c>
-      <c r="AI23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <f>COUNTA(AL23:AU23)</f>
-        <v>2</v>
-      </c>
-      <c r="AK23">
-        <v>1</v>
-      </c>
-      <c r="AL23" t="str">
-        <f t="shared" ref="AL23" si="2">D24</f>
-        <v>SSA_ATOM_VMIN_K_PREHVQK_TITO_ATOML2_MIN_LFM_1700_SSA</v>
-      </c>
-      <c r="AM23" t="str">
-        <f>D24</f>
-        <v>SSA_ATOM_VMIN_K_PREHVQK_TITO_ATOML2_MIN_LFM_1700_SSA</v>
-      </c>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
+      <c r="AZ23" s="7"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="7"/>
+      <c r="BC23" s="7"/>
+      <c r="BD23" s="7"/>
+      <c r="BE23" s="7"/>
+      <c r="BF23" s="7"/>
+      <c r="BG23" s="7"/>
+      <c r="BH23" s="7"/>
+      <c r="BI23" s="7"/>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -4381,10 +4603,10 @@
       </c>
       <c r="D24" t="str">
         <f>E24&amp;"_"&amp;F24&amp;"_"&amp;G24&amp;"_"&amp;H24&amp;"_"&amp;A24&amp;"_"&amp;I24&amp;"_"&amp;J24&amp;"_"&amp;K24&amp;"_"&amp;L24&amp;"_"&amp;M24</f>
-        <v>SSA_ATOM_VMIN_K_PREHVQK_TITO_ATOML2_MIN_LFM_1700_SSA</v>
+        <v>ALL_ATOM_VMIN_K_PREHVQK_TITO_ATOM_MIN_LFM_1700_LSA_ROM</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
         <v>67</v>
@@ -4399,7 +4621,7 @@
         <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s">
         <v>51</v>
@@ -4408,7 +4630,7 @@
         <v>33</v>
       </c>
       <c r="M24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N24" t="s">
         <v>339</v>
@@ -4416,122 +4638,161 @@
       <c r="O24" t="s">
         <v>338</v>
       </c>
-      <c r="P24" t="s">
-        <v>333</v>
+      <c r="P24" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="Q24">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="R24">
         <v>61</v>
       </c>
       <c r="S24">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="U24">
         <v>-1</v>
       </c>
       <c r="V24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W24" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="X24" t="s">
+        <v>344</v>
       </c>
       <c r="AA24">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="AB24" t="s">
         <v>336</v>
       </c>
-      <c r="AI24" t="b">
+      <c r="AW24" t="b">
         <v>0</v>
       </c>
-      <c r="AJ24">
-        <f>COUNTA(AL24:AU24)</f>
+      <c r="AX24">
+        <f>COUNTA(AZ24:BI24)</f>
         <v>2</v>
       </c>
-      <c r="AK24">
-        <v>1</v>
-      </c>
-      <c r="AL24">
-        <v>1</v>
-      </c>
-      <c r="AM24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="AY24">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="str">
+        <f t="shared" ref="AZ24" si="3">D25</f>
+        <v>SSA_ATOM_VMIN_K_PREHVQK_TITO_ATOML2_MIN_LFM_1700_SSA</v>
+      </c>
+      <c r="BA24" t="str">
+        <f>D25</f>
+        <v>SSA_ATOM_VMIN_K_PREHVQK_TITO_ATOML2_MIN_LFM_1700_SSA</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>VLOOKUP(B25,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D25" t="str">
+        <f>E25&amp;"_"&amp;F25&amp;"_"&amp;G25&amp;"_"&amp;H25&amp;"_"&amp;A25&amp;"_"&amp;I25&amp;"_"&amp;J25&amp;"_"&amp;K25&amp;"_"&amp;L25&amp;"_"&amp;M25</f>
+        <v>SSA_ATOM_VMIN_K_PREHVQK_TITO_ATOML2_MIN_LFM_1700_SSA</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" t="s">
+        <v>241</v>
+      </c>
+      <c r="N25" t="s">
+        <v>339</v>
+      </c>
+      <c r="O25" t="s">
+        <v>338</v>
+      </c>
+      <c r="P25" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q25">
+        <v>60</v>
+      </c>
+      <c r="R25">
+        <v>61</v>
+      </c>
+      <c r="S25">
+        <v>203</v>
+      </c>
+      <c r="U25">
+        <v>-1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>146</v>
+      </c>
+      <c r="W25" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA25">
+        <v>2101</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>336</v>
+      </c>
+      <c r="AW25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <f>COUNTA(AZ25:BI25)</f>
+        <v>2</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25">
+        <v>1</v>
+      </c>
+      <c r="BA25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C25" s="7" t="str">
-        <f>VLOOKUP(B25,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="7"/>
-      <c r="AT25" s="7"/>
-      <c r="AU25" s="7"/>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C26" s="7" t="str">
         <f>VLOOKUP(B26,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -4554,7 +4815,7 @@
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
+      <c r="AE26" s="31"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
@@ -4571,101 +4832,94 @@
       <c r="AS26" s="7"/>
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
+      <c r="BC26" s="7"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7"/>
+      <c r="BF26" s="7"/>
+      <c r="BG26" s="7"/>
+      <c r="BH26" s="7"/>
+      <c r="BI26" s="7"/>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="6" t="str">
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7" t="str">
         <f>VLOOKUP(B27,templateLookup!A:B,2,0)</f>
-        <v>PrimeHvqkTestMethod</v>
-      </c>
-      <c r="D27" t="str">
-        <f>E27&amp;"_"&amp;F27&amp;"_"&amp;G27&amp;"_"&amp;H27&amp;"_"&amp;A27&amp;"_"&amp;I27&amp;"_"&amp;J27&amp;"_"&amp;K27&amp;"_"&amp;L27&amp;"_"&amp;M27</f>
-        <v>ALL_ATOM_HVQK_K_STRESS_TITO_ATOM_MAX_LFM_1700_LSA_ROM</v>
-      </c>
-      <c r="E27" t="s">
-        <v>41</v>
-      </c>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="7"/>
       <c r="F27" t="s">
         <v>67</v>
       </c>
-      <c r="G27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" t="s">
-        <v>67</v>
-      </c>
-      <c r="K27" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" t="s">
-        <v>240</v>
-      </c>
-      <c r="N27" t="s">
-        <v>339</v>
-      </c>
-      <c r="O27" t="s">
-        <v>338</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q27">
-        <v>17</v>
-      </c>
-      <c r="R27">
-        <v>20</v>
-      </c>
-      <c r="S27">
-        <v>300</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <f>COUNTA(AL27:AU27)</f>
-        <v>4</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL27" t="str">
-        <f>D28</f>
-        <v>SSA_ATOM_HVQK_K_STRESS_TITO_ATOML2_MAX_LFM_1700_SSA</v>
-      </c>
-      <c r="AM27" t="str">
-        <f>D28</f>
-        <v>SSA_ATOM_HVQK_K_STRESS_TITO_ATOML2_MAX_LFM_1700_SSA</v>
-      </c>
-      <c r="AN27" t="str">
-        <f>D28</f>
-        <v>SSA_ATOM_HVQK_K_STRESS_TITO_ATOML2_MAX_LFM_1700_SSA</v>
-      </c>
-      <c r="AO27" t="str">
-        <f>D28</f>
-        <v>SSA_ATOM_HVQK_K_STRESS_TITO_ATOML2_MAX_LFM_1700_SSA</v>
-      </c>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" s="7"/>
+      <c r="BC27" s="7"/>
+      <c r="BD27" s="7"/>
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7"/>
+      <c r="BI27" s="7"/>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>57</v>
       </c>
@@ -4678,10 +4932,10 @@
       </c>
       <c r="D28" t="str">
         <f>E28&amp;"_"&amp;F28&amp;"_"&amp;G28&amp;"_"&amp;H28&amp;"_"&amp;A28&amp;"_"&amp;I28&amp;"_"&amp;J28&amp;"_"&amp;K28&amp;"_"&amp;L28&amp;"_"&amp;M28</f>
-        <v>SSA_ATOM_HVQK_K_STRESS_TITO_ATOML2_MAX_LFM_1700_SSA</v>
+        <v>ALL_ATOM_HVQK_K_STRESS_TITO_ATOM_MAX_LFM_1700_LSA_ROM</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
         <v>67</v>
@@ -4696,7 +4950,7 @@
         <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="K28" t="s">
         <v>52</v>
@@ -4705,7 +4959,7 @@
         <v>33</v>
       </c>
       <c r="M28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N28" t="s">
         <v>339</v>
@@ -4713,119 +4967,155 @@
       <c r="O28" t="s">
         <v>338</v>
       </c>
-      <c r="P28" t="s">
-        <v>331</v>
+      <c r="P28" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="Q28">
         <v>17</v>
       </c>
       <c r="R28">
+        <v>20</v>
+      </c>
+      <c r="S28">
+        <v>300</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE28" s="30"/>
+      <c r="AW28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <f>COUNTA(AZ28:BI28)</f>
+        <v>4</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ28" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_HVQK_K_STRESS_TITO_ATOML2_MAX_LFM_1700_SSA</v>
+      </c>
+      <c r="BA28" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_HVQK_K_STRESS_TITO_ATOML2_MAX_LFM_1700_SSA</v>
+      </c>
+      <c r="BB28" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_HVQK_K_STRESS_TITO_ATOML2_MAX_LFM_1700_SSA</v>
+      </c>
+      <c r="BC28" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_HVQK_K_STRESS_TITO_ATOML2_MAX_LFM_1700_SSA</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="6" t="str">
+        <f>VLOOKUP(B29,templateLookup!A:B,2,0)</f>
+        <v>PrimeHvqkTestMethod</v>
+      </c>
+      <c r="D29" t="str">
+        <f>E29&amp;"_"&amp;F29&amp;"_"&amp;G29&amp;"_"&amp;H29&amp;"_"&amp;A29&amp;"_"&amp;I29&amp;"_"&amp;J29&amp;"_"&amp;K29&amp;"_"&amp;L29&amp;"_"&amp;M29</f>
+        <v>SSA_ATOM_HVQK_K_STRESS_TITO_ATOML2_MAX_LFM_1700_SSA</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" t="s">
+        <v>241</v>
+      </c>
+      <c r="N29" t="s">
+        <v>339</v>
+      </c>
+      <c r="O29" t="s">
+        <v>338</v>
+      </c>
+      <c r="P29" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q29">
+        <v>17</v>
+      </c>
+      <c r="R29">
         <v>60</v>
       </c>
-      <c r="S28">
+      <c r="S29">
         <v>301</v>
       </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
         <v>146</v>
       </c>
-      <c r="AI28" t="b">
+      <c r="AW29" t="b">
         <v>0</v>
       </c>
-      <c r="AJ28">
-        <f>COUNTA(AL28:AU28)</f>
+      <c r="AX29">
+        <f>COUNTA(AZ29:BI29)</f>
         <v>4</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AY29" t="s">
         <v>78</v>
       </c>
-      <c r="AL28">
-        <v>1</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="AZ29">
+        <v>1</v>
+      </c>
+      <c r="BA29">
+        <v>1</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
+      <c r="BC29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C29" s="7" t="str">
-        <f>VLOOKUP(B29,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7"/>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="7"/>
-      <c r="AP29" s="7"/>
-      <c r="AQ29" s="7"/>
-      <c r="AR29" s="7"/>
-      <c r="AS29" s="7"/>
-      <c r="AT29" s="7"/>
-      <c r="AU29" s="7"/>
-    </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C30" s="7" t="str">
         <f>VLOOKUP(B30,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -4865,105 +5155,94 @@
       <c r="AS30" s="7"/>
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
-    </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="7"/>
+      <c r="BA30" s="7"/>
+      <c r="BB30" s="7"/>
+      <c r="BC30" s="7"/>
+      <c r="BD30" s="7"/>
+      <c r="BE30" s="7"/>
+      <c r="BF30" s="7"/>
+      <c r="BG30" s="7"/>
+      <c r="BH30" s="7"/>
+      <c r="BI30" s="7"/>
+    </row>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="5" t="str">
+      <c r="B31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="7" t="str">
         <f>VLOOKUP(B31,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D31" t="str">
-        <f>E31&amp;"_"&amp;F31&amp;"_"&amp;G31&amp;"_"&amp;H31&amp;"_"&amp;A31&amp;"_"&amp;I31&amp;"_"&amp;J31&amp;"_"&amp;K31&amp;"_"&amp;L31&amp;"_"&amp;M31</f>
-        <v>ALL_ATOM_VMIN_K_POSTHVQK_TITO_ATOM_MIN_LFM_1700_LSA_ROM</v>
-      </c>
-      <c r="E31" t="s">
-        <v>41</v>
-      </c>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="7"/>
       <c r="F31" t="s">
         <v>67</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>82</v>
-      </c>
-      <c r="J31" t="s">
-        <v>67</v>
-      </c>
-      <c r="K31" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" t="s">
-        <v>240</v>
-      </c>
-      <c r="N31" t="s">
-        <v>339</v>
-      </c>
-      <c r="O31" t="s">
-        <v>338</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q31">
-        <v>26</v>
-      </c>
-      <c r="R31">
-        <v>20</v>
-      </c>
-      <c r="S31">
-        <v>400</v>
-      </c>
-      <c r="U31">
-        <v>-1</v>
-      </c>
-      <c r="V31" t="s">
-        <v>145</v>
-      </c>
-      <c r="W31" t="s">
-        <v>342</v>
-      </c>
-      <c r="X31" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA31">
-        <v>2110</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>336</v>
-      </c>
-      <c r="AI31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <f>COUNTA(AL31:AU31)</f>
-        <v>2</v>
-      </c>
-      <c r="AK31">
-        <v>1</v>
-      </c>
-      <c r="AL31" t="str">
-        <f t="shared" ref="AL31" si="3">D32</f>
-        <v>SSA_ATOM_VMIN_K_POSTHVQK_TITO_ATOML2_MIN_LFM_1700_L2_ALL</v>
-      </c>
-      <c r="AM31" t="str">
-        <f>D32</f>
-        <v>SSA_ATOM_VMIN_K_POSTHVQK_TITO_ATOML2_MIN_LFM_1700_L2_ALL</v>
-      </c>
-    </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7"/>
+      <c r="AW31" s="7"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7"/>
+      <c r="AZ31" s="7"/>
+      <c r="BA31" s="7"/>
+      <c r="BB31" s="7"/>
+      <c r="BC31" s="7"/>
+      <c r="BD31" s="7"/>
+      <c r="BE31" s="7"/>
+      <c r="BF31" s="7"/>
+      <c r="BG31" s="7"/>
+      <c r="BH31" s="7"/>
+      <c r="BI31" s="7"/>
+    </row>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -4976,10 +5255,10 @@
       </c>
       <c r="D32" t="str">
         <f>E32&amp;"_"&amp;F32&amp;"_"&amp;G32&amp;"_"&amp;H32&amp;"_"&amp;A32&amp;"_"&amp;I32&amp;"_"&amp;J32&amp;"_"&amp;K32&amp;"_"&amp;L32&amp;"_"&amp;M32</f>
-        <v>SSA_ATOM_VMIN_K_POSTHVQK_TITO_ATOML2_MIN_LFM_1700_L2_ALL</v>
+        <v>ALL_ATOM_VMIN_K_POSTHVQK_TITO_ATOM_MIN_LFM_1700_LSA_ROM</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
         <v>67</v>
@@ -4994,7 +5273,7 @@
         <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="K32" t="s">
         <v>51</v>
@@ -5003,7 +5282,7 @@
         <v>33</v>
       </c>
       <c r="M32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N32" t="s">
         <v>339</v>
@@ -5011,122 +5290,161 @@
       <c r="O32" t="s">
         <v>338</v>
       </c>
-      <c r="P32" t="s">
-        <v>333</v>
+      <c r="P32" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="Q32">
         <v>26</v>
       </c>
       <c r="R32">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="S32">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="U32">
         <v>-1</v>
       </c>
       <c r="V32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W32" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="X32" t="s">
+        <v>344</v>
       </c>
       <c r="AA32">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="AB32" t="s">
         <v>336</v>
       </c>
-      <c r="AI32" t="b">
+      <c r="AW32" t="b">
         <v>0</v>
       </c>
-      <c r="AJ32">
-        <f>COUNTA(AL32:AU32)</f>
+      <c r="AX32">
+        <f>COUNTA(AZ32:BI32)</f>
         <v>2</v>
       </c>
-      <c r="AK32">
-        <v>1</v>
-      </c>
-      <c r="AL32">
-        <v>1</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="AY32">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="str">
+        <f t="shared" ref="AZ32" si="4">D33</f>
+        <v>SSA_ATOM_VMIN_K_POSTHVQK_TITO_ATOML2_MIN_LFM_1700_L2_ALL</v>
+      </c>
+      <c r="BA32" t="str">
+        <f>D33</f>
+        <v>SSA_ATOM_VMIN_K_POSTHVQK_TITO_ATOML2_MIN_LFM_1700_L2_ALL</v>
+      </c>
+    </row>
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="5" t="str">
+        <f>VLOOKUP(B33,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D33" t="str">
+        <f>E33&amp;"_"&amp;F33&amp;"_"&amp;G33&amp;"_"&amp;H33&amp;"_"&amp;A33&amp;"_"&amp;I33&amp;"_"&amp;J33&amp;"_"&amp;K33&amp;"_"&amp;L33&amp;"_"&amp;M33</f>
+        <v>SSA_ATOM_VMIN_K_POSTHVQK_TITO_ATOML2_MIN_LFM_1700_L2_ALL</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N33" t="s">
+        <v>339</v>
+      </c>
+      <c r="O33" t="s">
+        <v>338</v>
+      </c>
+      <c r="P33" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q33">
+        <v>26</v>
+      </c>
+      <c r="R33">
+        <v>60</v>
+      </c>
+      <c r="S33">
+        <v>403</v>
+      </c>
+      <c r="U33">
+        <v>-1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>146</v>
+      </c>
+      <c r="W33" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA33">
+        <v>2111</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AW33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <f>COUNTA(AZ33:BI33)</f>
+        <v>2</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33">
+        <v>1</v>
+      </c>
+      <c r="BA33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C33" s="7" t="str">
-        <f>VLOOKUP(B33,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
-      <c r="AJ33" s="7"/>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="7"/>
-      <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="7"/>
-      <c r="AR33" s="7"/>
-      <c r="AS33" s="7"/>
-      <c r="AT33" s="7"/>
-      <c r="AU33" s="7"/>
-    </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C34" s="7" t="str">
         <f>VLOOKUP(B34,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -5166,138 +5484,127 @@
       <c r="AS34" s="7"/>
       <c r="AT34" s="7"/>
       <c r="AU34" s="7"/>
-    </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="7"/>
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="7"/>
+      <c r="AZ34" s="7"/>
+      <c r="BA34" s="7"/>
+      <c r="BB34" s="7"/>
+      <c r="BC34" s="7"/>
+      <c r="BD34" s="7"/>
+      <c r="BE34" s="7"/>
+      <c r="BF34" s="7"/>
+      <c r="BG34" s="7"/>
+      <c r="BH34" s="7"/>
+      <c r="BI34" s="7"/>
+    </row>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="5" t="str">
+      <c r="C35" s="7" t="str">
         <f>VLOOKUP(B35,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
-      <c r="D35" t="s">
-        <v>59</v>
-      </c>
+      <c r="D35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="7"/>
       <c r="F35" t="s">
         <v>67</v>
       </c>
-      <c r="AJ35">
-        <f t="shared" ref="AJ35:AJ40" si="4">COUNTA(AL35:AU35)</f>
-        <v>2</v>
-      </c>
-      <c r="AK35">
-        <v>1</v>
-      </c>
-      <c r="AL35" t="str">
-        <f>D42</f>
-        <v>PMOVI</v>
-      </c>
-      <c r="AM35" t="str">
-        <f>D42</f>
-        <v>PMOVI</v>
-      </c>
-    </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="7"/>
+      <c r="AQ35" s="7"/>
+      <c r="AR35" s="7"/>
+      <c r="AS35" s="7"/>
+      <c r="AT35" s="7"/>
+      <c r="AU35" s="7"/>
+      <c r="AV35" s="7"/>
+      <c r="AW35" s="7"/>
+      <c r="AX35" s="7"/>
+      <c r="AY35" s="7"/>
+      <c r="AZ35" s="7"/>
+      <c r="BA35" s="7"/>
+      <c r="BB35" s="7"/>
+      <c r="BC35" s="7"/>
+      <c r="BD35" s="7"/>
+      <c r="BE35" s="7"/>
+      <c r="BF35" s="7"/>
+      <c r="BG35" s="7"/>
+      <c r="BH35" s="7"/>
+      <c r="BI35" s="7"/>
+    </row>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C36" s="5" t="str">
         <f>VLOOKUP(B36,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D36" s="25" t="str">
-        <f>E36&amp;"_"&amp;F36&amp;"_"&amp;G36&amp;"_"&amp;H36&amp;"_"&amp;A36&amp;"_"&amp;I36&amp;"_"&amp;J36&amp;"_"&amp;K36&amp;"_"&amp;L36&amp;"_"&amp;M36</f>
-        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_NOM_LFM_1700_L2_ALL</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
       </c>
       <c r="F36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36" t="s">
-        <v>143</v>
-      </c>
-      <c r="K36" t="s">
-        <v>99</v>
-      </c>
-      <c r="L36" t="s">
-        <v>33</v>
-      </c>
-      <c r="M36" t="s">
-        <v>238</v>
-      </c>
-      <c r="N36" t="s">
-        <v>339</v>
-      </c>
-      <c r="O36" t="s">
-        <v>338</v>
-      </c>
-      <c r="P36" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q36">
-        <v>60</v>
-      </c>
-      <c r="R36">
-        <v>62</v>
-      </c>
-      <c r="S36">
-        <v>500</v>
-      </c>
-      <c r="U36">
-        <v>-1</v>
-      </c>
-      <c r="V36" t="s">
-        <v>146</v>
-      </c>
-      <c r="W36" t="s">
-        <v>342</v>
-      </c>
-      <c r="X36" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA36">
-        <v>2120</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>337</v>
-      </c>
-      <c r="AI36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ36">
-        <f t="shared" si="4"/>
+      <c r="AX36">
+        <f t="shared" ref="AX36:AX41" si="5">COUNTA(AZ36:BI36)</f>
         <v>2</v>
       </c>
-      <c r="AK36">
-        <v>1</v>
-      </c>
-      <c r="AL36" t="str">
-        <f>D37</f>
-        <v>LSA_ATOM_SB_K_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
-      </c>
-      <c r="AM36" t="str">
-        <f>D37</f>
-        <v>LSA_ATOM_SB_K_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
-      </c>
-    </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AY36">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="str">
+        <f>D44</f>
+        <v>PMOVI</v>
+      </c>
+      <c r="BA36" t="str">
+        <f>D44</f>
+        <v>PMOVI</v>
+      </c>
+    </row>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>56</v>
       </c>
@@ -5310,10 +5617,10 @@
       </c>
       <c r="D37" s="25" t="str">
         <f>E37&amp;"_"&amp;F37&amp;"_"&amp;G37&amp;"_"&amp;H37&amp;"_"&amp;A37&amp;"_"&amp;I37&amp;"_"&amp;J37&amp;"_"&amp;K37&amp;"_"&amp;L37&amp;"_"&amp;M37</f>
-        <v>LSA_ATOM_SB_K_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
+        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_NOM_LFM_1700_L2_ALL</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
         <v>67</v>
@@ -5337,7 +5644,7 @@
         <v>33</v>
       </c>
       <c r="M37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N37" t="s">
         <v>339</v>
@@ -5346,7 +5653,7 @@
         <v>338</v>
       </c>
       <c r="P37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q37">
         <v>60</v>
@@ -5355,43 +5662,46 @@
         <v>62</v>
       </c>
       <c r="S37">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="U37">
         <v>-1</v>
       </c>
       <c r="V37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="W37" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="X37" t="s">
+        <v>344</v>
       </c>
       <c r="AA37">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="AB37" t="s">
         <v>337</v>
       </c>
-      <c r="AI37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ37">
-        <f t="shared" si="4"/>
+      <c r="AW37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX37">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AK37">
-        <v>1</v>
-      </c>
-      <c r="AL37" t="str">
+      <c r="AY37">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="str">
         <f>D38</f>
-        <v>LSA_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
-      </c>
-      <c r="AM37" t="str">
+        <v>LSA_ATOM_SB_K_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
+      </c>
+      <c r="BA37" t="str">
         <f>D38</f>
-        <v>LSA_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
-      </c>
-    </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+        <v>LSA_ATOM_SB_K_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
+      </c>
+    </row>
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>56</v>
       </c>
@@ -5404,7 +5714,7 @@
       </c>
       <c r="D38" s="25" t="str">
         <f>E38&amp;"_"&amp;F38&amp;"_"&amp;G38&amp;"_"&amp;H38&amp;"_"&amp;A38&amp;"_"&amp;I38&amp;"_"&amp;J38&amp;"_"&amp;K38&amp;"_"&amp;L38&amp;"_"&amp;M38</f>
-        <v>LSA_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
+        <v>LSA_ATOM_SB_K_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
       </c>
       <c r="E38" t="s">
         <v>53</v>
@@ -5422,7 +5732,7 @@
         <v>82</v>
       </c>
       <c r="J38" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="K38" t="s">
         <v>99</v>
@@ -5431,7 +5741,7 @@
         <v>33</v>
       </c>
       <c r="M38" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N38" t="s">
         <v>339</v>
@@ -5440,16 +5750,16 @@
         <v>338</v>
       </c>
       <c r="P38" t="s">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="R38">
         <v>62</v>
       </c>
       <c r="S38">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="U38">
         <v>-1</v>
@@ -5461,31 +5771,31 @@
         <v>343</v>
       </c>
       <c r="AA38">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="AB38" t="s">
         <v>337</v>
       </c>
-      <c r="AI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <f t="shared" si="4"/>
+      <c r="AW38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX38">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AK38">
-        <v>1</v>
-      </c>
-      <c r="AL38" t="str">
+      <c r="AY38">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="str">
         <f>D39</f>
-        <v>LSA_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
-      </c>
-      <c r="AM38" t="str">
+        <v>LSA_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
+      </c>
+      <c r="BA38" t="str">
         <f>D39</f>
-        <v>LSA_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
-      </c>
-    </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+        <v>LSA_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
+      </c>
+    </row>
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>56</v>
       </c>
@@ -5498,7 +5808,7 @@
       </c>
       <c r="D39" s="25" t="str">
         <f>E39&amp;"_"&amp;F39&amp;"_"&amp;G39&amp;"_"&amp;H39&amp;"_"&amp;A39&amp;"_"&amp;I39&amp;"_"&amp;J39&amp;"_"&amp;K39&amp;"_"&amp;L39&amp;"_"&amp;M39</f>
-        <v>LSA_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
+        <v>LSA_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
       </c>
       <c r="E39" t="s">
         <v>53</v>
@@ -5525,7 +5835,7 @@
         <v>33</v>
       </c>
       <c r="M39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N39" t="s">
         <v>339</v>
@@ -5534,7 +5844,7 @@
         <v>338</v>
       </c>
       <c r="P39" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>20</v>
@@ -5543,7 +5853,7 @@
         <v>62</v>
       </c>
       <c r="S39">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="U39">
         <v>-1</v>
@@ -5555,31 +5865,31 @@
         <v>343</v>
       </c>
       <c r="AA39">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="AB39" t="s">
         <v>337</v>
       </c>
-      <c r="AI39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ39">
-        <f t="shared" si="4"/>
+      <c r="AW39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AK39">
-        <v>1</v>
-      </c>
-      <c r="AL39" t="str">
+      <c r="AY39">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="str">
         <f>D40</f>
-        <v>CAM_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
-      </c>
-      <c r="AM39" t="str">
+        <v>LSA_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
+      </c>
+      <c r="BA39" t="str">
         <f>D40</f>
-        <v>CAM_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
-      </c>
-    </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+        <v>LSA_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
+      </c>
+    </row>
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>56</v>
       </c>
@@ -5592,10 +5902,10 @@
       </c>
       <c r="D40" s="25" t="str">
         <f>E40&amp;"_"&amp;F40&amp;"_"&amp;G40&amp;"_"&amp;H40&amp;"_"&amp;A40&amp;"_"&amp;I40&amp;"_"&amp;J40&amp;"_"&amp;K40&amp;"_"&amp;L40&amp;"_"&amp;M40</f>
-        <v>CAM_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
+        <v>LSA_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
       </c>
       <c r="E40" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
         <v>67</v>
@@ -5619,7 +5929,7 @@
         <v>33</v>
       </c>
       <c r="M40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N40" t="s">
         <v>339</v>
@@ -5628,7 +5938,7 @@
         <v>338</v>
       </c>
       <c r="P40" t="s">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="Q40">
         <v>20</v>
@@ -5637,7 +5947,7 @@
         <v>62</v>
       </c>
       <c r="S40">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="U40">
         <v>-1</v>
@@ -5649,262 +5959,238 @@
         <v>343</v>
       </c>
       <c r="AA40">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="AB40" t="s">
         <v>337</v>
       </c>
-      <c r="AI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <f t="shared" si="4"/>
+      <c r="AW40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX40">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AK40">
-        <v>1</v>
-      </c>
-      <c r="AL40">
-        <v>1</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AY40">
+        <v>1</v>
+      </c>
+      <c r="AZ40" t="str">
+        <f>D41</f>
+        <v>CAM_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
+      </c>
+      <c r="BA40" t="str">
+        <f>D41</f>
+        <v>CAM_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
+      </c>
+    </row>
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C41" s="5" t="str">
         <f>VLOOKUP(B41,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-    </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="11" t="str">
-        <f>VLOOKUP(B42,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D42" t="s">
-        <v>237</v>
-      </c>
-      <c r="F42" t="s">
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D41" s="25" t="str">
+        <f>E41&amp;"_"&amp;F41&amp;"_"&amp;G41&amp;"_"&amp;H41&amp;"_"&amp;A41&amp;"_"&amp;I41&amp;"_"&amp;J41&amp;"_"&amp;K41&amp;"_"&amp;L41&amp;"_"&amp;M41</f>
+        <v>CAM_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
+      </c>
+      <c r="E41" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" t="s">
         <v>67</v>
       </c>
-      <c r="AJ42">
-        <f t="shared" ref="AJ42:AJ45" si="5">COUNTA(AL42:AU42)</f>
-        <v>2</v>
-      </c>
-      <c r="AK42">
-        <v>1</v>
-      </c>
-      <c r="AL42" t="str">
-        <f>D47</f>
-        <v>VMAX</v>
-      </c>
-      <c r="AM42" t="str">
-        <f>D47</f>
-        <v>VMAX</v>
-      </c>
-    </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="11" t="str">
-        <f>VLOOKUP(B43,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D43" t="str">
-        <f>E43&amp;"_"&amp;F43&amp;"_"&amp;G43&amp;"_"&amp;H43&amp;"_"&amp;A43&amp;"_"&amp;I43&amp;"_"&amp;J43&amp;"_"&amp;K43&amp;"_"&amp;L43&amp;"_"&amp;M43</f>
-        <v>SSA_ATOM_SB_E_END_TITO_ATOML2_NOM_LFM_1700_L2_ALL_PMOVI</v>
-      </c>
-      <c r="E43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" t="s">
         <v>67</v>
       </c>
-      <c r="G43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" t="s">
-        <v>82</v>
-      </c>
-      <c r="J43" t="s">
-        <v>143</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="K41" t="s">
         <v>99</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L41" t="s">
         <v>33</v>
       </c>
-      <c r="M43" t="s">
-        <v>247</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="M41" t="s">
+        <v>244</v>
+      </c>
+      <c r="N41" t="s">
         <v>339</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O41" t="s">
         <v>338</v>
       </c>
-      <c r="P43" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q43">
-        <v>60</v>
-      </c>
-      <c r="R43">
+      <c r="P41" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q41">
+        <v>20</v>
+      </c>
+      <c r="R41">
         <v>62</v>
       </c>
-      <c r="S43">
-        <v>510</v>
-      </c>
-      <c r="U43">
+      <c r="S41">
+        <v>504</v>
+      </c>
+      <c r="U41">
         <v>-1</v>
       </c>
-      <c r="V43" t="s">
-        <v>146</v>
-      </c>
-      <c r="W43" t="s">
+      <c r="V41" t="s">
+        <v>145</v>
+      </c>
+      <c r="W41" t="s">
         <v>343</v>
       </c>
-      <c r="AA43">
-        <v>2130</v>
-      </c>
-      <c r="AB43" t="s">
+      <c r="AA41">
+        <v>2124</v>
+      </c>
+      <c r="AB41" t="s">
         <v>337</v>
       </c>
-      <c r="AI43" t="b">
+      <c r="AW41" t="b">
         <v>0</v>
       </c>
-      <c r="AJ43">
+      <c r="AX41">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AK43">
-        <v>1</v>
-      </c>
-      <c r="AL43" t="str">
-        <f>D44</f>
-        <v>LSA_ATOM_SB_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU_PMOVI</v>
-      </c>
-      <c r="AM43" t="str">
-        <f>D44</f>
-        <v>LSA_ATOM_SB_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU_PMOVI</v>
-      </c>
-    </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AY41">
+        <v>1</v>
+      </c>
+      <c r="AZ41">
+        <v>1</v>
+      </c>
+      <c r="BA41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:61" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C42" s="26" t="str">
+        <f>VLOOKUP(B42,templateLookup!A:B,2,0)</f>
+        <v>VminTC</v>
+      </c>
+      <c r="D42" s="27" t="str">
+        <f>E42&amp;"_"&amp;F42&amp;"_"&amp;G42&amp;"_"&amp;H42&amp;"_"&amp;A42&amp;"_"&amp;I42&amp;"_"&amp;J42&amp;"_"&amp;K42&amp;"_"&amp;L42&amp;"_"&amp;M42</f>
+        <v>CAM_ATOM_SB_K_END_TITO_ATOM_NOM_LFM_1700_CAM_DDG</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="N42" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="O42" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="P42" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q42" s="26">
+        <v>20</v>
+      </c>
+      <c r="R42" s="26">
+        <v>62</v>
+      </c>
+      <c r="S42" s="26">
+        <v>504</v>
+      </c>
+      <c r="U42" s="26">
+        <v>-1</v>
+      </c>
+      <c r="V42" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="W42" s="26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="5" t="str">
+        <f>VLOOKUP(B43,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C44" s="11" t="str">
         <f>VLOOKUP(B44,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D44" t="str">
-        <f>E44&amp;"_"&amp;F44&amp;"_"&amp;G44&amp;"_"&amp;H44&amp;"_"&amp;A44&amp;"_"&amp;I44&amp;"_"&amp;J44&amp;"_"&amp;K44&amp;"_"&amp;L44&amp;"_"&amp;M44</f>
-        <v>LSA_ATOM_SB_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU_PMOVI</v>
-      </c>
-      <c r="E44" t="s">
-        <v>53</v>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D44" t="s">
+        <v>237</v>
       </c>
       <c r="F44" t="s">
         <v>67</v>
       </c>
-      <c r="G44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" t="s">
-        <v>82</v>
-      </c>
-      <c r="J44" t="s">
-        <v>143</v>
-      </c>
-      <c r="K44" t="s">
-        <v>99</v>
-      </c>
-      <c r="L44" t="s">
-        <v>33</v>
-      </c>
-      <c r="M44" t="s">
-        <v>248</v>
-      </c>
-      <c r="N44" t="s">
-        <v>339</v>
-      </c>
-      <c r="O44" t="s">
-        <v>338</v>
-      </c>
-      <c r="P44" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q44">
-        <v>60</v>
-      </c>
-      <c r="R44">
-        <v>62</v>
-      </c>
-      <c r="S44">
-        <v>511</v>
-      </c>
-      <c r="U44">
-        <v>-1</v>
-      </c>
-      <c r="V44" t="s">
-        <v>145</v>
-      </c>
-      <c r="W44" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA44">
-        <v>2131</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>337</v>
-      </c>
-      <c r="AI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <f t="shared" si="5"/>
+      <c r="AX44">
+        <f t="shared" ref="AX44:AX47" si="6">COUNTA(AZ44:BI44)</f>
         <v>2</v>
       </c>
-      <c r="AK44">
-        <v>1</v>
-      </c>
-      <c r="AL44" t="str">
-        <f>D45</f>
-        <v>LSA_ATOM_SB_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL_PMOVI</v>
-      </c>
-      <c r="AM44" t="str">
-        <f>D45</f>
-        <v>LSA_ATOM_SB_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL_PMOVI</v>
-      </c>
-    </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AY44">
+        <v>1</v>
+      </c>
+      <c r="AZ44" t="str">
+        <f>D49</f>
+        <v>VMAX</v>
+      </c>
+      <c r="BA44" t="str">
+        <f>D49</f>
+        <v>VMAX</v>
+      </c>
+    </row>
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>56</v>
       </c>
@@ -5917,10 +6203,10 @@
       </c>
       <c r="D45" t="str">
         <f>E45&amp;"_"&amp;F45&amp;"_"&amp;G45&amp;"_"&amp;H45&amp;"_"&amp;A45&amp;"_"&amp;I45&amp;"_"&amp;J45&amp;"_"&amp;K45&amp;"_"&amp;L45&amp;"_"&amp;M45</f>
-        <v>LSA_ATOM_SB_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL_PMOVI</v>
+        <v>SSA_ATOM_SB_E_END_TITO_ATOML2_NOM_LFM_1700_L2_ALL_PMOVI</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
         <v>67</v>
@@ -5935,7 +6221,7 @@
         <v>82</v>
       </c>
       <c r="J45" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="K45" t="s">
         <v>99</v>
@@ -5944,7 +6230,7 @@
         <v>33</v>
       </c>
       <c r="M45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N45" t="s">
         <v>339</v>
@@ -5953,281 +6239,281 @@
         <v>338</v>
       </c>
       <c r="P45" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="R45">
         <v>62</v>
       </c>
       <c r="S45">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="U45">
         <v>-1</v>
       </c>
       <c r="V45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="W45" t="s">
         <v>343</v>
       </c>
       <c r="AA45">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="AB45" t="s">
         <v>337</v>
       </c>
-      <c r="AI45" t="b">
+      <c r="AW45" t="b">
         <v>0</v>
       </c>
-      <c r="AJ45">
-        <f t="shared" si="5"/>
+      <c r="AX45">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AK45">
-        <v>1</v>
-      </c>
-      <c r="AL45">
-        <v>1</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AY45">
+        <v>1</v>
+      </c>
+      <c r="AZ45" t="str">
+        <f>D46</f>
+        <v>LSA_ATOM_SB_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU_PMOVI</v>
+      </c>
+      <c r="BA45" t="str">
+        <f>D46</f>
+        <v>LSA_ATOM_SB_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU_PMOVI</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C46" s="11" t="str">
         <f>VLOOKUP(B46,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-    </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D46" t="str">
+        <f>E46&amp;"_"&amp;F46&amp;"_"&amp;G46&amp;"_"&amp;H46&amp;"_"&amp;A46&amp;"_"&amp;I46&amp;"_"&amp;J46&amp;"_"&amp;K46&amp;"_"&amp;L46&amp;"_"&amp;M46</f>
+        <v>LSA_ATOM_SB_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU_PMOVI</v>
+      </c>
+      <c r="E46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" t="s">
+        <v>143</v>
+      </c>
+      <c r="K46" t="s">
+        <v>99</v>
+      </c>
+      <c r="L46" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" t="s">
+        <v>248</v>
+      </c>
+      <c r="N46" t="s">
+        <v>339</v>
+      </c>
+      <c r="O46" t="s">
+        <v>338</v>
+      </c>
+      <c r="P46" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q46">
+        <v>60</v>
+      </c>
+      <c r="R46">
+        <v>62</v>
+      </c>
+      <c r="S46">
+        <v>511</v>
+      </c>
+      <c r="U46">
+        <v>-1</v>
+      </c>
+      <c r="V46" t="s">
+        <v>145</v>
+      </c>
+      <c r="W46" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA46">
+        <v>2131</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AW46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AY46">
+        <v>1</v>
+      </c>
+      <c r="AZ46" t="str">
+        <f>D47</f>
+        <v>LSA_ATOM_SB_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL_PMOVI</v>
+      </c>
+      <c r="BA46" t="str">
+        <f>D47</f>
+        <v>LSA_ATOM_SB_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL_PMOVI</v>
+      </c>
+    </row>
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="8" t="str">
+      <c r="B47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="11" t="str">
         <f>VLOOKUP(B47,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D47" t="s">
-        <v>60</v>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D47" t="str">
+        <f>E47&amp;"_"&amp;F47&amp;"_"&amp;G47&amp;"_"&amp;H47&amp;"_"&amp;A47&amp;"_"&amp;I47&amp;"_"&amp;J47&amp;"_"&amp;K47&amp;"_"&amp;L47&amp;"_"&amp;M47</f>
+        <v>LSA_ATOM_SB_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL_PMOVI</v>
+      </c>
+      <c r="E47" t="s">
+        <v>53</v>
       </c>
       <c r="F47" t="s">
         <v>67</v>
       </c>
-      <c r="AJ47">
-        <f>COUNTA(AL47:AU47)</f>
+      <c r="G47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s">
+        <v>82</v>
+      </c>
+      <c r="J47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K47" t="s">
+        <v>99</v>
+      </c>
+      <c r="L47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" t="s">
+        <v>249</v>
+      </c>
+      <c r="N47" t="s">
+        <v>339</v>
+      </c>
+      <c r="O47" t="s">
+        <v>338</v>
+      </c>
+      <c r="P47" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q47">
+        <v>20</v>
+      </c>
+      <c r="R47">
+        <v>62</v>
+      </c>
+      <c r="S47">
+        <v>512</v>
+      </c>
+      <c r="U47">
+        <v>-1</v>
+      </c>
+      <c r="V47" t="s">
+        <v>145</v>
+      </c>
+      <c r="W47" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA47">
+        <v>2132</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>337</v>
+      </c>
+      <c r="AW47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AK47">
-        <v>1</v>
-      </c>
-      <c r="AL47">
-        <v>1</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="AY47">
+        <v>1</v>
+      </c>
+      <c r="AZ47">
+        <v>1</v>
+      </c>
+      <c r="BA47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="8" t="str">
+      <c r="B48" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="11" t="str">
         <f>VLOOKUP(B48,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D48" t="str">
-        <f>E48&amp;"_"&amp;F48&amp;"_"&amp;G48&amp;"_"&amp;H48&amp;"_"&amp;A48&amp;"_"&amp;I48&amp;"_"&amp;J48&amp;"_"&amp;K48&amp;"_"&amp;L48&amp;"_"&amp;M48</f>
-        <v>ALL_ATOM_SB_K_END_TITO_ATOM_MAX_LFM_1700_LSA_ROM</v>
-      </c>
-      <c r="E48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
-        <v>82</v>
-      </c>
-      <c r="J48" t="s">
-        <v>67</v>
-      </c>
-      <c r="K48" t="s">
-        <v>52</v>
-      </c>
-      <c r="L48" t="s">
-        <v>33</v>
-      </c>
-      <c r="M48" t="s">
-        <v>240</v>
-      </c>
-      <c r="N48" t="s">
-        <v>339</v>
-      </c>
-      <c r="O48" t="s">
-        <v>338</v>
-      </c>
-      <c r="P48" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q48">
-        <v>17</v>
-      </c>
-      <c r="R48">
-        <v>20</v>
-      </c>
-      <c r="S48">
-        <v>600</v>
-      </c>
-      <c r="U48">
-        <v>-1</v>
-      </c>
-      <c r="V48" t="s">
-        <v>145</v>
-      </c>
-      <c r="W48" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA48">
-        <v>2140</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>337</v>
-      </c>
-      <c r="AI48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <f>COUNTA(AL48:AU48)</f>
-        <v>2</v>
-      </c>
-      <c r="AK48">
-        <v>1</v>
-      </c>
-      <c r="AL48" t="str">
-        <f>D49</f>
-        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_MAX_LFM_1700_SSA</v>
-      </c>
-      <c r="AM48" t="str">
-        <f>D49</f>
-        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_MAX_LFM_1700_SSA</v>
-      </c>
-    </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C49" s="8" t="str">
         <f>VLOOKUP(B49,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D49" t="str">
-        <f>E49&amp;"_"&amp;F49&amp;"_"&amp;G49&amp;"_"&amp;H49&amp;"_"&amp;A49&amp;"_"&amp;I49&amp;"_"&amp;J49&amp;"_"&amp;K49&amp;"_"&amp;L49&amp;"_"&amp;M49</f>
-        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_MAX_LFM_1700_SSA</v>
-      </c>
-      <c r="E49" t="s">
-        <v>30</v>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
       </c>
       <c r="F49" t="s">
         <v>67</v>
       </c>
-      <c r="G49" t="s">
-        <v>84</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
-        <v>82</v>
-      </c>
-      <c r="J49" t="s">
-        <v>143</v>
-      </c>
-      <c r="K49" t="s">
-        <v>52</v>
-      </c>
-      <c r="L49" t="s">
-        <v>33</v>
-      </c>
-      <c r="M49" t="s">
-        <v>241</v>
-      </c>
-      <c r="N49" t="s">
-        <v>339</v>
-      </c>
-      <c r="O49" t="s">
-        <v>338</v>
-      </c>
-      <c r="P49" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q49">
-        <v>17</v>
-      </c>
-      <c r="R49">
-        <v>60</v>
-      </c>
-      <c r="S49">
-        <v>601</v>
-      </c>
-      <c r="U49">
-        <v>-1</v>
-      </c>
-      <c r="V49" t="s">
-        <v>146</v>
-      </c>
-      <c r="W49" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA49">
-        <v>2141</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>337</v>
-      </c>
-      <c r="AI49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ49">
-        <f>COUNTA(AL49:AU49)</f>
+      <c r="AX49">
+        <f>COUNTA(AZ49:BI49)</f>
         <v>2</v>
       </c>
-      <c r="AK49">
-        <v>1</v>
-      </c>
-      <c r="AL49" t="str">
-        <f>D50</f>
-        <v>ALL_ATOM_SB_K_END_TITO_ATOM_MAX_LFM_3900_LSA_ROM</v>
-      </c>
-      <c r="AM49" t="str">
-        <f>D50</f>
-        <v>ALL_ATOM_SB_K_END_TITO_ATOM_MAX_LFM_3900_LSA_ROM</v>
-      </c>
-    </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AY49">
+        <v>1</v>
+      </c>
+      <c r="AZ49">
+        <v>1</v>
+      </c>
+      <c r="BA49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>56</v>
       </c>
@@ -6240,7 +6526,7 @@
       </c>
       <c r="D50" t="str">
         <f>E50&amp;"_"&amp;F50&amp;"_"&amp;G50&amp;"_"&amp;H50&amp;"_"&amp;A50&amp;"_"&amp;I50&amp;"_"&amp;J50&amp;"_"&amp;K50&amp;"_"&amp;L50&amp;"_"&amp;M50</f>
-        <v>ALL_ATOM_SB_K_END_TITO_ATOM_MAX_LFM_3900_LSA_ROM</v>
+        <v>ALL_ATOM_SB_K_END_TITO_ATOM_MAX_LFM_1700_LSA_ROM</v>
       </c>
       <c r="E50" t="s">
         <v>41</v>
@@ -6267,7 +6553,7 @@
         <v>33</v>
       </c>
       <c r="M50" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N50" t="s">
         <v>339</v>
@@ -6285,10 +6571,10 @@
         <v>20</v>
       </c>
       <c r="S50">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V50" t="s">
         <v>145</v>
@@ -6297,31 +6583,31 @@
         <v>343</v>
       </c>
       <c r="AA50">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="AB50" t="s">
         <v>337</v>
       </c>
-      <c r="AI50" t="b">
+      <c r="AW50" t="b">
         <v>0</v>
       </c>
-      <c r="AJ50">
-        <f>COUNTA(AL50:AU50)</f>
+      <c r="AX50">
+        <f>COUNTA(AZ50:BI50)</f>
         <v>2</v>
       </c>
-      <c r="AK50">
-        <v>1</v>
-      </c>
-      <c r="AL50" t="str">
+      <c r="AY50">
+        <v>1</v>
+      </c>
+      <c r="AZ50" t="str">
         <f>D51</f>
-        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_MAX_LFM_3900_SSA</v>
-      </c>
-      <c r="AM50" t="str">
+        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_MAX_LFM_1700_SSA</v>
+      </c>
+      <c r="BA50" t="str">
         <f>D51</f>
-        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_MAX_LFM_3900_SSA</v>
-      </c>
-    </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_MAX_LFM_1700_SSA</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>56</v>
       </c>
@@ -6334,7 +6620,7 @@
       </c>
       <c r="D51" t="str">
         <f>E51&amp;"_"&amp;F51&amp;"_"&amp;G51&amp;"_"&amp;H51&amp;"_"&amp;A51&amp;"_"&amp;I51&amp;"_"&amp;J51&amp;"_"&amp;K51&amp;"_"&amp;L51&amp;"_"&amp;M51</f>
-        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_MAX_LFM_3900_SSA</v>
+        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_MAX_LFM_1700_SSA</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
@@ -6361,7 +6647,7 @@
         <v>33</v>
       </c>
       <c r="M51" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N51" t="s">
         <v>339</v>
@@ -6379,10 +6665,10 @@
         <v>60</v>
       </c>
       <c r="S51">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V51" t="s">
         <v>146</v>
@@ -6391,264 +6677,260 @@
         <v>343</v>
       </c>
       <c r="AA51">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="AB51" t="s">
         <v>337</v>
       </c>
-      <c r="AI51" t="b">
+      <c r="AW51" t="b">
         <v>0</v>
       </c>
-      <c r="AJ51">
-        <f>COUNTA(AL51:AU51)</f>
+      <c r="AX51">
+        <f>COUNTA(AZ51:BI51)</f>
         <v>2</v>
       </c>
-      <c r="AK51">
-        <v>1</v>
-      </c>
-      <c r="AL51">
-        <v>1</v>
-      </c>
-      <c r="AM51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AY51">
+        <v>1</v>
+      </c>
+      <c r="AZ51" t="str">
+        <f>D52</f>
+        <v>ALL_ATOM_SB_K_END_TITO_ATOM_MAX_LFM_3900_LSA_ROM</v>
+      </c>
+      <c r="BA51" t="str">
+        <f>D52</f>
+        <v>ALL_ATOM_SB_K_END_TITO_ATOM_MAX_LFM_3900_LSA_ROM</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C52" s="8" t="str">
         <f>VLOOKUP(B52,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-    </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D52" t="str">
+        <f>E52&amp;"_"&amp;F52&amp;"_"&amp;G52&amp;"_"&amp;H52&amp;"_"&amp;A52&amp;"_"&amp;I52&amp;"_"&amp;J52&amp;"_"&amp;K52&amp;"_"&amp;L52&amp;"_"&amp;M52</f>
+        <v>ALL_ATOM_SB_K_END_TITO_ATOM_MAX_LFM_3900_LSA_ROM</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+      <c r="J52" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" t="s">
+        <v>245</v>
+      </c>
+      <c r="N52" t="s">
+        <v>339</v>
+      </c>
+      <c r="O52" t="s">
+        <v>338</v>
+      </c>
+      <c r="P52" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q52">
+        <v>17</v>
+      </c>
+      <c r="R52">
+        <v>20</v>
+      </c>
+      <c r="S52">
+        <v>602</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52" t="s">
+        <v>145</v>
+      </c>
+      <c r="W52" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA52">
+        <v>2142</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>337</v>
+      </c>
+      <c r="AW52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <f>COUNTA(AZ52:BI52)</f>
+        <v>2</v>
+      </c>
+      <c r="AY52">
+        <v>1</v>
+      </c>
+      <c r="AZ52" t="str">
+        <f>D53</f>
+        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_MAX_LFM_3900_SSA</v>
+      </c>
+      <c r="BA52" t="str">
+        <f>D53</f>
+        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_MAX_LFM_3900_SSA</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="12" t="str">
+      <c r="B53" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="8" t="str">
         <f>VLOOKUP(B53,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D53" t="s">
-        <v>350</v>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D53" t="str">
+        <f>E53&amp;"_"&amp;F53&amp;"_"&amp;G53&amp;"_"&amp;H53&amp;"_"&amp;A53&amp;"_"&amp;I53&amp;"_"&amp;J53&amp;"_"&amp;K53&amp;"_"&amp;L53&amp;"_"&amp;M53</f>
+        <v>SSA_ATOM_SB_K_END_TITO_ATOML2_MAX_LFM_3900_SSA</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
       </c>
       <c r="F53" t="s">
         <v>67</v>
       </c>
-      <c r="AJ53">
-        <f t="shared" ref="AJ53:AJ58" si="6">COUNTA(AL53:AU53)</f>
+      <c r="G53" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J53" t="s">
+        <v>143</v>
+      </c>
+      <c r="K53" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" t="s">
+        <v>246</v>
+      </c>
+      <c r="N53" t="s">
+        <v>339</v>
+      </c>
+      <c r="O53" t="s">
+        <v>338</v>
+      </c>
+      <c r="P53" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q53">
+        <v>17</v>
+      </c>
+      <c r="R53">
+        <v>60</v>
+      </c>
+      <c r="S53">
+        <v>603</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53" t="s">
+        <v>146</v>
+      </c>
+      <c r="W53" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA53">
+        <v>2143</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>337</v>
+      </c>
+      <c r="AW53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <f>COUNTA(AZ53:BI53)</f>
         <v>2</v>
       </c>
-      <c r="AK53">
-        <v>1</v>
-      </c>
-      <c r="AL53">
-        <v>1</v>
-      </c>
-      <c r="AM53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="AY53">
+        <v>1</v>
+      </c>
+      <c r="AZ53">
+        <v>1</v>
+      </c>
+      <c r="BA53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C54" s="12" t="str">
+      <c r="B54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="8" t="str">
         <f>VLOOKUP(B54,templateLookup!A:B,2,0)</f>
-        <v>PrimeShmooTestMethod</v>
-      </c>
-      <c r="D54" t="str">
-        <f>E54&amp;"_"&amp;F54&amp;"_"&amp;G54&amp;"_"&amp;H54&amp;"_"&amp;A54&amp;"_"&amp;I54&amp;"_"&amp;J54&amp;"_"&amp;K54&amp;"_"&amp;L54&amp;"_"&amp;M54</f>
-        <v>SSA_ATOM_SHMOO_E_END_TITO_ATOML2_NOM_LFM_1700_L2_ALL</v>
-      </c>
-      <c r="E54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s">
-        <v>350</v>
-      </c>
-      <c r="H54" t="s">
-        <v>32</v>
-      </c>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-      <c r="J54" t="s">
-        <v>143</v>
-      </c>
-      <c r="K54" t="s">
-        <v>99</v>
-      </c>
-      <c r="L54" t="s">
-        <v>33</v>
-      </c>
-      <c r="M54" t="s">
-        <v>238</v>
-      </c>
-      <c r="N54" t="s">
-        <v>356</v>
-      </c>
-      <c r="O54" t="s">
-        <v>338</v>
-      </c>
-      <c r="P54" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q54">
-        <v>60</v>
-      </c>
-      <c r="R54">
-        <v>62</v>
-      </c>
-      <c r="S54">
-        <v>650</v>
-      </c>
-      <c r="T54" t="s">
-        <v>352</v>
-      </c>
-      <c r="U54">
-        <v>-1</v>
-      </c>
-      <c r="V54" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL54" t="str">
-        <f>$D55</f>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
-      </c>
-      <c r="AM54" t="str">
-        <f t="shared" ref="AM54:AO54" si="7">$D55</f>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
-      </c>
-      <c r="AN54" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
-      </c>
-      <c r="AO54" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
-      </c>
-    </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>347</v>
+        <v>27</v>
       </c>
       <c r="C55" s="12" t="str">
         <f>VLOOKUP(B55,templateLookup!A:B,2,0)</f>
-        <v>PrimeShmooTestMethod</v>
-      </c>
-      <c r="D55" t="str">
-        <f>E55&amp;"_"&amp;F55&amp;"_"&amp;G55&amp;"_"&amp;H55&amp;"_"&amp;A55&amp;"_"&amp;I55&amp;"_"&amp;J55&amp;"_"&amp;K55&amp;"_"&amp;L55&amp;"_"&amp;M55</f>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
-      </c>
-      <c r="E55" t="s">
-        <v>53</v>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D55" t="s">
+        <v>350</v>
       </c>
       <c r="F55" t="s">
         <v>67</v>
       </c>
-      <c r="G55" t="s">
-        <v>350</v>
-      </c>
-      <c r="H55" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" t="s">
-        <v>82</v>
-      </c>
-      <c r="J55" t="s">
-        <v>143</v>
-      </c>
-      <c r="K55" t="s">
-        <v>99</v>
-      </c>
-      <c r="L55" t="s">
-        <v>33</v>
-      </c>
-      <c r="M55" t="s">
-        <v>239</v>
-      </c>
-      <c r="N55" t="s">
-        <v>356</v>
-      </c>
-      <c r="O55" t="s">
-        <v>338</v>
-      </c>
-      <c r="P55" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q55">
-        <v>60</v>
-      </c>
-      <c r="R55">
-        <v>62</v>
-      </c>
-      <c r="S55">
-        <v>651</v>
-      </c>
-      <c r="T55" t="s">
-        <v>353</v>
-      </c>
-      <c r="U55">
-        <v>-1</v>
-      </c>
-      <c r="V55" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AK55" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL55" t="str">
-        <f>$D56</f>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
-      </c>
-      <c r="AM55" t="str">
-        <f t="shared" ref="AM55:AM57" si="8">$D56</f>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
-      </c>
-      <c r="AN55" t="str">
-        <f t="shared" ref="AN55:AN57" si="9">$D56</f>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
-      </c>
-      <c r="AO55" t="str">
-        <f t="shared" ref="AO55:AO57" si="10">$D56</f>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
-      </c>
-    </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AX55">
+        <f t="shared" ref="AX55:AX60" si="7">COUNTA(AZ55:BI55)</f>
+        <v>2</v>
+      </c>
+      <c r="AY55">
+        <v>1</v>
+      </c>
+      <c r="AZ55">
+        <v>1</v>
+      </c>
+      <c r="BA55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>56</v>
       </c>
@@ -6661,10 +6943,10 @@
       </c>
       <c r="D56" t="str">
         <f>E56&amp;"_"&amp;F56&amp;"_"&amp;G56&amp;"_"&amp;H56&amp;"_"&amp;A56&amp;"_"&amp;I56&amp;"_"&amp;J56&amp;"_"&amp;K56&amp;"_"&amp;L56&amp;"_"&amp;M56</f>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
+        <v>SSA_ATOM_SHMOO_E_END_TITO_ATOML2_NOM_LFM_1700_L2_ALL</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
         <v>67</v>
@@ -6679,7 +6961,7 @@
         <v>82</v>
       </c>
       <c r="J56" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="K56" t="s">
         <v>99</v>
@@ -6688,7 +6970,7 @@
         <v>33</v>
       </c>
       <c r="M56" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N56" t="s">
         <v>356</v>
@@ -6697,54 +6979,54 @@
         <v>338</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>329</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="R56">
         <v>62</v>
       </c>
       <c r="S56">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="T56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U56">
         <v>-1</v>
       </c>
       <c r="V56" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI56" t="b">
+        <v>146</v>
+      </c>
+      <c r="AW56" t="b">
         <v>0</v>
       </c>
-      <c r="AJ56">
-        <f t="shared" si="6"/>
+      <c r="AX56">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AK56" t="s">
+      <c r="AY56" t="s">
         <v>106</v>
       </c>
-      <c r="AL56" t="str">
+      <c r="AZ56" t="str">
         <f>$D57</f>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
-      </c>
-      <c r="AM56" t="str">
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
+      </c>
+      <c r="BA56" t="str">
+        <f t="shared" ref="BA56:BC56" si="8">$D57</f>
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
+      </c>
+      <c r="BB56" t="str">
         <f t="shared" si="8"/>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
-      </c>
-      <c r="AN56" t="str">
-        <f t="shared" si="9"/>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
-      </c>
-      <c r="AO56" t="str">
-        <f t="shared" si="10"/>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
-      </c>
-    </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
+      </c>
+      <c r="BC56" t="str">
+        <f t="shared" si="8"/>
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>56</v>
       </c>
@@ -6757,7 +7039,7 @@
       </c>
       <c r="D57" t="str">
         <f>E57&amp;"_"&amp;F57&amp;"_"&amp;G57&amp;"_"&amp;H57&amp;"_"&amp;A57&amp;"_"&amp;I57&amp;"_"&amp;J57&amp;"_"&amp;K57&amp;"_"&amp;L57&amp;"_"&amp;M57</f>
-        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOML2_NOM_LFM_1700_L2_LRU</v>
       </c>
       <c r="E57" t="s">
         <v>53</v>
@@ -6775,7 +7057,7 @@
         <v>82</v>
       </c>
       <c r="J57" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="K57" t="s">
         <v>99</v>
@@ -6784,7 +7066,7 @@
         <v>33</v>
       </c>
       <c r="M57" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N57" t="s">
         <v>356</v>
@@ -6793,16 +7075,16 @@
         <v>338</v>
       </c>
       <c r="P57" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="R57">
         <v>62</v>
       </c>
       <c r="S57">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="T57" t="s">
         <v>353</v>
@@ -6813,34 +7095,34 @@
       <c r="V57" t="s">
         <v>145</v>
       </c>
-      <c r="AI57" t="b">
+      <c r="AW57" t="b">
         <v>0</v>
       </c>
-      <c r="AJ57">
-        <f t="shared" si="6"/>
+      <c r="AX57">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AK57" t="s">
+      <c r="AY57" t="s">
         <v>106</v>
       </c>
-      <c r="AL57" t="str">
+      <c r="AZ57" t="str">
         <f>$D58</f>
-        <v>CAM_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
-      </c>
-      <c r="AM57" t="str">
-        <f t="shared" si="8"/>
-        <v>CAM_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
-      </c>
-      <c r="AN57" t="str">
-        <f t="shared" si="9"/>
-        <v>CAM_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
-      </c>
-      <c r="AO57" t="str">
-        <f t="shared" si="10"/>
-        <v>CAM_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
-      </c>
-    </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
+      </c>
+      <c r="BA57" t="str">
+        <f t="shared" ref="BA57:BA59" si="9">$D58</f>
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
+      </c>
+      <c r="BB57" t="str">
+        <f t="shared" ref="BB57:BB59" si="10">$D58</f>
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
+      </c>
+      <c r="BC57" t="str">
+        <f t="shared" ref="BC57:BC59" si="11">$D58</f>
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>56</v>
       </c>
@@ -6853,10 +7135,10 @@
       </c>
       <c r="D58" t="str">
         <f>E58&amp;"_"&amp;F58&amp;"_"&amp;G58&amp;"_"&amp;H58&amp;"_"&amp;A58&amp;"_"&amp;I58&amp;"_"&amp;J58&amp;"_"&amp;K58&amp;"_"&amp;L58&amp;"_"&amp;M58</f>
-        <v>CAM_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_RF_ALL</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s">
         <v>67</v>
@@ -6880,7 +7162,7 @@
         <v>33</v>
       </c>
       <c r="M58" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N58" t="s">
         <v>356</v>
@@ -6889,7 +7171,7 @@
         <v>338</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>20</v>
@@ -6898,7 +7180,7 @@
         <v>62</v>
       </c>
       <c r="S58">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="T58" t="s">
         <v>353</v>
@@ -6909,112 +7191,319 @@
       <c r="V58" t="s">
         <v>145</v>
       </c>
-      <c r="AI58" t="b">
+      <c r="AW58" t="b">
         <v>0</v>
       </c>
-      <c r="AJ58">
-        <f t="shared" si="6"/>
+      <c r="AX58">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AK58" t="s">
+      <c r="AY58" t="s">
         <v>106</v>
       </c>
-      <c r="AL58">
-        <v>1</v>
-      </c>
-      <c r="AM58">
-        <v>1</v>
-      </c>
-      <c r="AN58">
-        <v>1</v>
-      </c>
-      <c r="AO58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AZ58" t="str">
+        <f>$D59</f>
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
+      </c>
+      <c r="BA58" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
+      </c>
+      <c r="BB58" t="str">
+        <f t="shared" si="10"/>
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
+      </c>
+      <c r="BC58" t="str">
+        <f t="shared" si="11"/>
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>39</v>
+        <v>347</v>
       </c>
       <c r="C59" s="12" t="str">
         <f>VLOOKUP(B59,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-    </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+        <v>PrimeShmooTestMethod</v>
+      </c>
+      <c r="D59" t="str">
+        <f>E59&amp;"_"&amp;F59&amp;"_"&amp;G59&amp;"_"&amp;H59&amp;"_"&amp;A59&amp;"_"&amp;I59&amp;"_"&amp;J59&amp;"_"&amp;K59&amp;"_"&amp;L59&amp;"_"&amp;M59</f>
+        <v>LSA_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_ROM</v>
+      </c>
+      <c r="E59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" t="s">
+        <v>350</v>
+      </c>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59" t="s">
+        <v>99</v>
+      </c>
+      <c r="L59" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" t="s">
+        <v>243</v>
+      </c>
+      <c r="N59" t="s">
+        <v>356</v>
+      </c>
+      <c r="O59" t="s">
+        <v>338</v>
+      </c>
+      <c r="P59" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q59">
+        <v>20</v>
+      </c>
+      <c r="R59">
+        <v>62</v>
+      </c>
+      <c r="S59">
+        <v>653</v>
+      </c>
+      <c r="T59" t="s">
+        <v>353</v>
+      </c>
+      <c r="U59">
+        <v>-1</v>
+      </c>
+      <c r="V59" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ59" t="str">
+        <f>$D60</f>
+        <v>CAM_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
+      </c>
+      <c r="BA59" t="str">
+        <f t="shared" si="9"/>
+        <v>CAM_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
+      </c>
+      <c r="BB59" t="str">
+        <f t="shared" si="10"/>
+        <v>CAM_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
+      </c>
+      <c r="BC59" t="str">
+        <f t="shared" si="11"/>
+        <v>CAM_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C60" s="12" t="str">
+        <f>VLOOKUP(B60,templateLookup!A:B,2,0)</f>
+        <v>PrimeShmooTestMethod</v>
+      </c>
+      <c r="D60" t="str">
+        <f>E60&amp;"_"&amp;F60&amp;"_"&amp;G60&amp;"_"&amp;H60&amp;"_"&amp;A60&amp;"_"&amp;I60&amp;"_"&amp;J60&amp;"_"&amp;K60&amp;"_"&amp;L60&amp;"_"&amp;M60</f>
+        <v>CAM_ATOM_SHMOO_E_END_TITO_ATOM_NOM_LFM_1700_CAM</v>
+      </c>
+      <c r="E60" t="s">
+        <v>228</v>
+      </c>
+      <c r="F60" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" t="s">
+        <v>350</v>
+      </c>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+      <c r="J60" t="s">
+        <v>67</v>
+      </c>
+      <c r="K60" t="s">
+        <v>99</v>
+      </c>
+      <c r="L60" t="s">
+        <v>33</v>
+      </c>
+      <c r="M60" t="s">
+        <v>244</v>
+      </c>
+      <c r="N60" t="s">
+        <v>356</v>
+      </c>
+      <c r="O60" t="s">
+        <v>338</v>
+      </c>
+      <c r="P60" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q60">
+        <v>20</v>
+      </c>
+      <c r="R60">
+        <v>62</v>
+      </c>
+      <c r="S60">
+        <v>654</v>
+      </c>
+      <c r="T60" t="s">
+        <v>353</v>
+      </c>
+      <c r="U60">
+        <v>-1</v>
+      </c>
+      <c r="V60" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX60">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ60">
+        <v>1</v>
+      </c>
+      <c r="BA60">
+        <v>1</v>
+      </c>
+      <c r="BB60">
+        <v>1</v>
+      </c>
+      <c r="BC60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="7" t="str">
-        <f>VLOOKUP(B60,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
-      <c r="AA60" s="7"/>
-      <c r="AB60" s="7"/>
-      <c r="AC60" s="7"/>
-      <c r="AD60" s="7"/>
-      <c r="AE60" s="7"/>
-      <c r="AF60" s="7"/>
-      <c r="AG60" s="7"/>
-      <c r="AH60" s="7"/>
-      <c r="AI60" s="7"/>
-      <c r="AJ60" s="7"/>
-      <c r="AK60" s="7"/>
-      <c r="AL60" s="7"/>
-      <c r="AM60" s="7"/>
-      <c r="AN60" s="7"/>
-      <c r="AO60" s="7"/>
-      <c r="AP60" s="7"/>
-      <c r="AQ60" s="7"/>
-      <c r="AR60" s="7"/>
-      <c r="AS60" s="7"/>
-      <c r="AT60" s="7"/>
-      <c r="AU60" s="7"/>
-    </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" t="str">
+      <c r="C61" s="12" t="str">
         <f>VLOOKUP(B61,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
-      <c r="D61" t="s">
+    </row>
+    <row r="62" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="7" t="str">
+        <f>VLOOKUP(B62,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+      <c r="AO62" s="7"/>
+      <c r="AP62" s="7"/>
+      <c r="AQ62" s="7"/>
+      <c r="AR62" s="7"/>
+      <c r="AS62" s="7"/>
+      <c r="AT62" s="7"/>
+      <c r="AU62" s="7"/>
+      <c r="AV62" s="7"/>
+      <c r="AW62" s="7"/>
+      <c r="AX62" s="7"/>
+      <c r="AY62" s="7"/>
+      <c r="AZ62" s="7"/>
+      <c r="BA62" s="7"/>
+      <c r="BB62" s="7"/>
+      <c r="BC62" s="7"/>
+      <c r="BD62" s="7"/>
+      <c r="BE62" s="7"/>
+      <c r="BF62" s="7"/>
+      <c r="BG62" s="7"/>
+      <c r="BH62" s="7"/>
+      <c r="BI62" s="7"/>
+    </row>
+    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="str">
+        <f>VLOOKUP(B63,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AU61" xr:uid="{E78E7DAD-E2E3-41CA-AC6B-36D49F2F3F66}"/>
+  <autoFilter ref="A1:BI63" xr:uid="{E78E7DAD-E2E3-41CA-AC6B-36D49F2F3F66}"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="AB1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -23096,6 +23585,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002200735434F8BC4E847E79EE962A8A4A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="83f675189dd244c3c7bcfe6ef2723be5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1cd8a145-0748-4d97-9311-a3be7d9cf841" xmlns:ns3="2e84272e-479a-4b4f-8918-ffe580143f91" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dd33d4618ec6cc7e4782be4e466c7bd" ns2:_="" ns3:_="">
     <xsd:import namespace="1cd8a145-0748-4d97-9311-a3be7d9cf841"/>
@@ -23272,16 +23770,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D30E43E-9BCC-44E6-A6FA-8336DBB02DA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD6ABBF-3907-430F-A89A-B3039F113893}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23298,12 +23795,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D30E43E-9BCC-44E6-A6FA-8336DBB02DA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>